--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Exponential.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Exponential.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC6C34-66FB-4550-9A05-BE40D4461F17}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94F2FA-31EB-45D9-9E6B-38EAEF4D9BF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10995" yWindow="2970" windowWidth="17790" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -663,454 +661,454 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9801326693244699E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.9210560847676788E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.8235466415751287E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.6883653613364217E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.5162581964040427E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.11307956328284248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.1306417646011942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.14785621103378865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.16472978858872797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.18126924692201815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.19748120203752151</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.21337213893344659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.22894841419643369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.24421625854427453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.25918177931828212</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.27385096292630906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.28822967723739029</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.30232367392896892</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.31613859078764411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.32967995396436073</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.3429531801849432</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.35596357891685859</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.36871635449307405</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.38121660819385911</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.39346934028736658</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.40547945202980568</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.41725174762601036</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.42879093615118513</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.44010163343459791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.4511883639059735</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.46205556240532558</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.47270757595695145</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.48314866550830071</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.4933830076344104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.50341469620859058</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.51324774404002826</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.52288608447896556</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.53233357299009076</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.54159398869477648</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.55067103588277844</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.55956834549400081</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.56828947657092033</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.57683791768225112</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.58521708831841879</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.59343034025940089</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.60148095891548592</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.60937216464147892</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.61710711402488794</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.62468890114860054</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.63212055882855767</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.63940505982692164</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.64654531804121984</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.65354418966994254</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.66040447435506089</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.6671289163019205</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.67372020537696053</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.68018097818369616</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.68651381911739473</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.69272126139886869</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.69880578808779781</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.70476983307598573</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.71061578206094933</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.71634597350022955</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.72196269954680581</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.72746820696598746</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.73286469803414966</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.73815433141967401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>0.74333922304644418</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.74842144694024348</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.75340303605839354</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.75828598310296358</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.76307224131787821</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.76776372527024117</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.77236231161618729</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.77686983985157021</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.78128811304778523</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.78561889857302203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.78986392879923528</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.79402490179511653</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.79810348200534464</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>0.80210130091638532</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.80601995770910806</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.80986101989847947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.81362602396059003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.81731647594726531</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.82093385208850678</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.82447959938300319</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.82795513617694949</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.8313618527314045</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>0.83470111177841344</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>0.83797424906611928</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>0.84118257389307938</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>0.84432736963200272</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>0.84740989424311608</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>0.85043138077736491</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>0.85339303786964982</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>0.85629605022229704</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>0.85914157907895494</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>0.86193076268910718</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>0.8646647167633873</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>0.86734453491987828</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>0.86997128912157407</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>0.87254603010517928</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>0.87506978780141753</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>0.87754357174701814</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>0.87996837148854323</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>0.8823451569782208</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>0.88467487896193753</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>0.88695846935955014</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>0.8891968416376661</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>0.891390891175042</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>0.89354149562074725</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>0.89564951524523506</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>0.8977157932844626</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>0.89974115627719631</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>0.9017264143956385</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>0.90367236176950694</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>0.90557977680369761</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>0.90744942248965677</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>0.90928204671058754</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>0.91107838254061368</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>0.91283914853801873</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>0.91456504903267877</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>0.91625677440780406</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>0.91791500137610116</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>0.91954039325046755</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>0.92113360020932511</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>0.92269525955670029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>0.92422599597715449</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>0.92572642178566611</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>0.92719713717256447</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>0.92863873044361389</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>0.93005177825534469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>0.93143684584572206</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>0.93279448726025027</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>0.93412524557359711</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>0.93542965310683157</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>0.93670823164035932</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>0.93796149262264172</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>0.93918993737478207</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>0.94039405729106063</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>0.94157433403549917</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>0.94273123973453266</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>0.94386523716586623</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>0.94497677994359275</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>0.94606631269964403</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>0.94713427126164962</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>0.9481810828272742</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>0.94920716613510148</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>0.95021293163213605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,7 +2164,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2194,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>_xlfn.EXPON.DIST(A2, 1/$E$1,TRUE)</f>
+        <v>1.9801326693244699E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,19 +2203,24 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f t="shared" ref="B3:B66" si="0">_xlfn.EXPON.DIST(A3, 1/$E$1,TRUE)</f>
+        <v>3.9210560847676788E-2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <f>B16-B11</f>
+        <v>7.7912532396263973E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.8235466415751287E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2228,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.6883653613364217E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,7 +2237,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.5162581964040427E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,7 +2246,8 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.11307956328284248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,7 +2255,8 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.1306417646011942</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,7 +2264,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.14785621103378865</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,7 +2273,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16472978858872797</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,7 +2282,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.18126924692201815</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,7 +2291,8 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.19748120203752151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,7 +2300,8 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.21337213893344659</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,7 +2309,8 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.22894841419643369</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,7 +2318,8 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.24421625854427453</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,7 +2327,8 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25918177931828212</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2336,8 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.27385096292630906</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2345,8 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.28822967723739029</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2354,8 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.30232367392896892</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2363,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.31613859078764411</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2372,8 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.32967995396436073</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2381,8 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.3429531801849432</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2390,8 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.35596357891685859</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2399,8 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.36871635449307405</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2408,8 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.38121660819385911</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2417,8 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.39346934028736658</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2426,8 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40547945202980568</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2435,8 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.41725174762601036</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2444,8 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.42879093615118513</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2453,8 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.44010163343459791</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2462,8 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.4511883639059735</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2471,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.46205556240532558</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2480,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.47270757595695145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2489,8 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.48314866550830071</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2498,8 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.4933830076344104</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2507,8 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.50341469620859058</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2516,8 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.51324774404002826</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2525,8 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.52288608447896556</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2534,8 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.53233357299009076</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2543,8 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.54159398869477648</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2552,8 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55067103588277844</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2561,8 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.55956834549400081</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2570,8 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.56828947657092033</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2579,8 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.57683791768225112</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2588,8 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.58521708831841879</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2597,8 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.59343034025940089</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2606,8 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.60148095891548592</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2615,8 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.60937216464147892</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2624,8 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.61710711402488794</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2633,8 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.62468890114860054</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2642,8 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63212055882855767</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2651,8 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63940505982692164</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2660,8 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.64654531804121984</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2669,8 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.65354418966994254</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2678,8 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.66040447435506089</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2687,8 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.6671289163019205</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2696,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.67372020537696053</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2705,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.68018097818369616</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2714,8 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.68651381911739473</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2723,8 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.69272126139886869</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2732,8 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.69880578808779781</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2741,8 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.70476983307598573</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2750,8 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.71061578206094933</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2759,8 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.71634597350022955</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2768,8 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.72196269954680581</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2777,8 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.72746820696598746</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2786,8 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <f t="shared" ref="B67:B130" si="1">_xlfn.EXPON.DIST(A67, 1/$E$1,TRUE)</f>
+        <v>0.73286469803414966</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2795,8 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.73815433141967401</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2804,8 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.74333922304644418</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2813,8 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.74842144694024348</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2822,8 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.75340303605839354</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2831,8 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.75828598310296358</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2840,8 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.76307224131787821</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2849,8 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.76776372527024117</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2858,8 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.77236231161618729</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2867,8 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.77686983985157021</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2876,8 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.78128811304778523</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2885,8 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.78561889857302203</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2894,8 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.78986392879923528</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2903,8 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.79402490179511653</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2912,8 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.79810348200534464</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2921,8 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.80210130091638532</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2930,8 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.80601995770910806</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2939,8 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.80986101989847947</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2948,8 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.81362602396059003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2957,8 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.81731647594726531</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2966,8 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.82093385208850678</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2975,8 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.82447959938300319</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2984,8 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.82795513617694949</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2993,8 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8313618527314045</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +3002,8 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.83470111177841344</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +3011,8 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.83797424906611928</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +3020,8 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84118257389307938</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +3029,8 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84432736963200272</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +3038,8 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84740989424311608</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +3047,8 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85043138077736491</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +3056,8 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85339303786964982</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3065,8 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85629605022229704</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +3074,8 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85914157907895494</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +3083,8 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.86193076268910718</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3092,8 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8646647167633873</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3101,8 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.86734453491987828</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3110,8 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.86997128912157407</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3119,8 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.87254603010517928</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3128,8 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.87506978780141753</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3137,8 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.87754357174701814</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3146,8 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.87996837148854323</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3155,8 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8823451569782208</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3164,8 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88467487896193753</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3173,8 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.88695846935955014</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3182,8 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8891968416376661</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3191,8 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.891390891175042</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3200,8 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.89354149562074725</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3209,8 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.89564951524523506</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3218,8 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8977157932844626</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3227,8 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.89974115627719631</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3236,8 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.9017264143956385</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3245,8 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90367236176950694</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3254,8 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90557977680369761</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3263,8 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90744942248965677</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3272,8 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.90928204671058754</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3281,8 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91107838254061368</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3290,8 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91283914853801873</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3299,8 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91456504903267877</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3308,8 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91625677440780406</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3317,8 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91791500137610116</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3326,8 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.91954039325046755</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3335,8 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.92113360020932511</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3344,8 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.92269525955670029</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3353,8 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.92422599597715449</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3362,8 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <f t="shared" ref="B131:B151" si="2">_xlfn.EXPON.DIST(A131, 1/$E$1,TRUE)</f>
+        <v>0.92572642178566611</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3371,8 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.92719713717256447</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3380,8 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.92863873044361389</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3389,8 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93005177825534469</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3398,8 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93143684584572206</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3407,8 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93279448726025027</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3416,8 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93412524557359711</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3425,8 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93542965310683157</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3434,8 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93670823164035932</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3443,8 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93796149262264172</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3452,8 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.93918993737478207</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3461,8 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94039405729106063</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3470,8 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94157433403549917</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3479,8 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94273123973453266</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3488,8 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94386523716586623</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3497,8 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94497677994359275</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3360,7 +3506,8 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94606631269964403</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3515,8 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94713427126164962</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3524,8 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.9481810828272742</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3384,7 +3533,8 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.94920716613510148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3542,8 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.95021293163213605</v>
       </c>
     </row>
   </sheetData>
